--- a/DCIT 21 - IT 1D/Attendance Sheet - IT 1D.xlsx
+++ b/DCIT 21 - IT 1D/Attendance Sheet - IT 1D.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="216">
   <si>
     <t>SURNAME</t>
   </si>
@@ -406,9 +406,6 @@
     <t>Ilagan</t>
   </si>
   <si>
-    <t>Micahel Angelo</t>
-  </si>
-  <si>
     <t>201701-640</t>
   </si>
   <si>
@@ -631,12 +628,6 @@
     <t>201601-174</t>
   </si>
   <si>
-    <t>Vilanuevea</t>
-  </si>
-  <si>
-    <t>Leyi</t>
-  </si>
-  <si>
     <t>201602-093</t>
   </si>
   <si>
@@ -680,6 +671,12 @@
   </si>
   <si>
     <t>Tuesday                                                                             9-10AM</t>
+  </si>
+  <si>
+    <t>Michael Angelo</t>
+  </si>
+  <si>
+    <t>Levi</t>
   </si>
 </sst>
 </file>
@@ -1171,6 +1168,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1396,20 +1407,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3710,97 +3707,97 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="32" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="33" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="24"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1"/>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -5985,8 +5982,8 @@
   </sheetPr>
   <dimension ref="A3:O184"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:O13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6013,158 +6010,158 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="44" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="50" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="48" t="s">
+      <c r="H9" s="59"/>
+      <c r="I9" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="60" t="s">
+      <c r="M9" s="56"/>
+      <c r="N9" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="69"/>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="64" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="71"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1"/>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
     </row>
     <row r="13" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="N13" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="O13" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
@@ -6172,16 +6169,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -6189,8 +6186,12 @@
       <c r="I14" s="9"/>
       <c r="J14" s="20"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="N14" s="15"/>
       <c r="O14" s="20"/>
     </row>
@@ -6200,14 +6201,14 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -6215,8 +6216,12 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="L15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
@@ -6226,16 +6231,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -6243,8 +6248,12 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="L16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
@@ -6254,16 +6263,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>197</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>198</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -6272,7 +6281,9 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="M17" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
@@ -6299,8 +6310,12 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="L18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
@@ -6310,16 +6325,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>185</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>186</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -6327,8 +6342,12 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="L19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
@@ -6355,8 +6374,12 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+      <c r="L20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
@@ -6366,16 +6389,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>177</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -6383,8 +6406,12 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="L21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
@@ -6394,16 +6421,16 @@
         <v>9</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -6411,8 +6438,12 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="L22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
@@ -6422,16 +6453,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>191</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>192</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -6439,8 +6470,12 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+      <c r="L23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
@@ -6450,16 +6485,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -6467,8 +6502,12 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+      <c r="L24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
@@ -6478,16 +6517,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="E25" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -6495,8 +6534,12 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="L25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
@@ -6523,8 +6566,12 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="L26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
@@ -6534,16 +6581,16 @@
         <v>14</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="D27" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="E27" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -6551,8 +6598,12 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="L27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
@@ -6562,16 +6613,16 @@
         <v>15</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="D28" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="E28" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -6579,8 +6630,12 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="L28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
@@ -6590,16 +6645,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="D29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>196</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -6607,8 +6662,12 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="L29" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
@@ -6636,7 +6695,9 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+      <c r="M30" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
@@ -6646,16 +6707,16 @@
         <v>18</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -6663,8 +6724,12 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="L31" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
@@ -6677,13 +6742,13 @@
         <v>124</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -6691,8 +6756,12 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="L32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
@@ -6702,16 +6771,16 @@
         <v>20</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -6719,8 +6788,12 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
+      <c r="L33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
@@ -6730,16 +6803,16 @@
         <v>21</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>171</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -6747,8 +6820,12 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
+      <c r="L34" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
@@ -6775,8 +6852,12 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
+      <c r="L35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
@@ -6786,16 +6867,16 @@
         <v>23</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -6803,8 +6884,12 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+      <c r="L36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
@@ -6831,8 +6916,12 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+      <c r="L37" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
@@ -6842,16 +6931,16 @@
         <v>25</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -6859,8 +6948,12 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="L38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
@@ -6945,48 +7038,48 @@
       <c r="O42" s="14"/>
     </row>
     <row r="43" spans="1:15" ht="17.100000000000001" hidden="1" customHeight="1">
-      <c r="A43" s="96">
+      <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="97"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="97"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="101"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="102"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="99"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -6995,11 +7088,11 @@
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="99"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -7008,11 +7101,11 @@
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="99"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -7021,11 +7114,11 @@
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="99"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -7034,11 +7127,11 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="99"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -7047,11 +7140,11 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="99"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -7060,11 +7153,11 @@
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="99"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -8685,7 +8778,7 @@
   <dimension ref="A1:O188"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:O7"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8706,137 +8799,137 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="50" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="54" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="48" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="60" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="O3" s="61"/>
+      <c r="O3" s="69"/>
     </row>
     <row r="4" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="63"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="9" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="43"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.45" customHeight="1">
@@ -8844,16 +8937,16 @@
         <v>26</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>141</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -8862,7 +8955,9 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
@@ -8871,16 +8966,16 @@
         <v>27</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>180</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -8888,8 +8983,12 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
@@ -8898,16 +8997,16 @@
         <v>28</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>157</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -8915,8 +9014,12 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="L10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
@@ -8925,16 +9028,16 @@
         <v>29</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>174</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -8942,8 +9045,12 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
@@ -8952,16 +9059,16 @@
         <v>30</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -8969,8 +9076,12 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
@@ -8997,7 +9108,9 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="M13" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
@@ -9006,14 +9119,14 @@
         <v>32</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -9031,16 +9144,16 @@
         <v>33</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -9048,8 +9161,12 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="L15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
@@ -11416,130 +11533,130 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="79"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="87"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="82"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="90"/>
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="44" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="50" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="48" t="s">
+      <c r="H9" s="59"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="60" t="s">
+      <c r="M9" s="56"/>
+      <c r="N9" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="69"/>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="64" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="71"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1"/>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="68" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="72"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="80"/>
     </row>
     <row r="13" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="69"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="16" t="s">
         <v>89</v>
       </c>
@@ -14310,111 +14427,111 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="44" t="str">
+      <c r="B3" s="40"/>
+      <c r="C3" s="52" t="str">
         <f>'lab LANDSCAPE P.1'!C9:F9</f>
         <v>DCIT 55 Operating System</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="50" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="48" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="87"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="95"/>
     </row>
     <row r="4" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="64" t="str">
+      <c r="B4" s="41"/>
+      <c r="C4" s="72" t="str">
         <f>'lab LANDSCAPE P.1'!C10:F10</f>
         <v>GIMEL C. CONTILLO</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
     </row>
     <row r="5" spans="1:15" ht="9" customHeight="1" thickBot="1">
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="68" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="72"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="80"/>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="69"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="77"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
